--- a/biology/Zoologie/Alpherakya/Alpherakya.xlsx
+++ b/biology/Zoologie/Alpherakya/Alpherakya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpherakya est un genre asiatique de lépidoptères de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Alpherakya a été créé par Alexander B. Zhdanko (d) en 1994. Son espèce type est Lycaena sarta Alphéraky, 1881[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Alpherakya a été créé par Alexander B. Zhdanko (d) en 1994. Son espèce type est Lycaena sarta Alphéraky, 1881.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FUNET Tree of Life  (30 mars 2019)[1] :
-Alpherakya devanica (Moore, [1875])
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FUNET Tree of Life  (30 mars 2019) :
+Alpherakya devanica (Moore, )
 Alpherakya bellona (Grum-Grshimailo, 1888) — parfois considéré comme une sous-espèce d’Alpherakya devanica
 Alpherakya pilgram (Bálint &amp; Johnson, 1997)
 Alpherakya sarta (Alphéraky, 1881)
